--- a/biology/Botanique/Saule_à_trois_étamines/Saule_à_trois_étamines.xlsx
+++ b/biology/Botanique/Saule_à_trois_étamines/Saule_à_trois_étamines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Saule_à_trois_étamines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix triandra
 Le Saule à trois étamines (Salix triandra) est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un saule de grande taille, à floraison continue de mars à octobre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Saule_à_trois_étamines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Écorce.
@@ -531,7 +545,7 @@
 Ils portent trois étamines libres, à anthères jaunes, et un style court.
 La capsule est glabre, courte, à pédicelle 3 à 4 fois plus long que la glande. Certaines variétés ont des feuilles glauques en dessous (S. amygdalina L.).
 Son écologie se caractérise par des lieux humides, dans presque toute la France.
-Répartition : Europe, Asie occidentale et boréale, Algérie[1].
+Répartition : Europe, Asie occidentale et boréale, Algérie.
 </t>
         </is>
       </c>
@@ -542,7 +556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Saule_à_trois_étamines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,7 +574,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fait partie des espèces les plus utilisées pour la vannerie avec le saule des vanniers (Salix viminalis), l'osier pourpre (Salix purpurea) et le Saule blanc -ou commun- (Salix alba).
 </t>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Saule_à_trois_étamines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Basionyme : Salix amygdalina L.
 Nestylix amygdalina (L.) Raf.
@@ -614,7 +632,7 @@
 Salix triandra var. angustifolia Ser.
 Salix triandra Ser.
 Salix amygdalina Fr.
-Salix triandra subsp. concolor Rech.f.[1].</t>
+Salix triandra subsp. concolor Rech.f..</t>
         </is>
       </c>
     </row>
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Saule_à_trois_étamines</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -642,7 +660,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les variétés (cultivar) sont nombreuses. On peut citer :
 Salix triandra 'Long Bud' (Marron / Vert)
@@ -662,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saule_%C3%A0_trois_%C3%A9tamines</t>
+          <t>Saule_à_trois_étamines</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,10 +700,12 @@
           <t>Maladies et ravageurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Salix triandra sont particulièrement sensibles aux cécidomyies qui produisent des galles également dues à Pontania proxima Lep.. Les autres espèces subissent plutôt des attaques de chrysomèles[2].
-Les feuilles de Salix fragilis et de S. triandra portent des galles de Pontania quasi identiques mais dues à des insectes différents[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Salix triandra sont particulièrement sensibles aux cécidomyies qui produisent des galles également dues à Pontania proxima Lep.. Les autres espèces subissent plutôt des attaques de chrysomèles.
+Les feuilles de Salix fragilis et de S. triandra portent des galles de Pontania quasi identiques mais dues à des insectes différents.
 </t>
         </is>
       </c>
